--- a/data/suma_productivity.xlsx
+++ b/data/suma_productivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C83E7208-ED3E-2148-9D8E-F2ACA8CB770B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E0C088-8E7B-C44E-821A-8112A7F596A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{4416D1B4-6F1C-124E-AA59-E749EF3E17B7}"/>
+    <workbookView xWindow="35820" yWindow="5520" windowWidth="27640" windowHeight="15760" xr2:uid="{4416D1B4-6F1C-124E-AA59-E749EF3E17B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D783006D-9E2E-9542-94FD-CA548FDC415E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -422,6 +422,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/suma_productivity.xlsx
+++ b/data/suma_productivity.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E0C088-8E7B-C44E-821A-8112A7F596A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F44EE-5856-D744-987D-C641553E26E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35820" yWindow="5520" windowWidth="27640" windowHeight="15760" xr2:uid="{4416D1B4-6F1C-124E-AA59-E749EF3E17B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D783006D-9E2E-9542-94FD-CA548FDC415E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -430,6 +430,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/suma_productivity.xlsx
+++ b/data/suma_productivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F44EE-5856-D744-987D-C641553E26E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289052F8-7013-8C4C-A727-CFCEAA3A5498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35820" yWindow="5520" windowWidth="27640" windowHeight="15760" xr2:uid="{4416D1B4-6F1C-124E-AA59-E749EF3E17B7}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D783006D-9E2E-9542-94FD-CA548FDC415E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -438,6 +438,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/suma_productivity.xlsx
+++ b/data/suma_productivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289052F8-7013-8C4C-A727-CFCEAA3A5498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA9AE2E-6EB8-3F48-A62C-F7A3EE319043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35820" yWindow="5520" windowWidth="27640" windowHeight="15760" xr2:uid="{4416D1B4-6F1C-124E-AA59-E749EF3E17B7}"/>
+    <workbookView xWindow="35340" yWindow="4980" windowWidth="27640" windowHeight="15760" xr2:uid="{4416D1B4-6F1C-124E-AA59-E749EF3E17B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D783006D-9E2E-9542-94FD-CA548FDC415E}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -446,6 +446,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
